--- a/InputData/bldgs/ECiCpCU/Embedded Carbon in Components per Currency Unit.xlsx
+++ b/InputData/bldgs/ECiCpCU/Embedded Carbon in Components per Currency Unit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="21075" windowHeight="12840" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="19440" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Source:</t>
-  </si>
-  <si>
     <t>Note:</t>
   </si>
   <si>
@@ -50,10 +47,13 @@
     <t>Embedded tons CO2/2012$</t>
   </si>
   <si>
-    <t>Most building components will be produced outside of the boundaries of the model.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It would not be appropriate to apply the California carbon tax to these emissions. </t>
+    <t>It is assumed that most of these emissions will be outside of California's boundaries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under these assumptions, it would not be appropriate to apply the California carbon price to these embedded emissions. </t>
+  </si>
+  <si>
+    <t>They are approximated as zero.</t>
   </si>
 </sst>
 </file>
@@ -63,7 +63,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,14 +75,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -164,32 +156,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -197,15 +184,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="5"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
-    <cellStyle name="Header: bottom row" xfId="4"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="7">
+    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="2"/>
+    <cellStyle name="Footnotes: top row" xfId="6"/>
+    <cellStyle name="Header: bottom row" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6"/>
-    <cellStyle name="Table title" xfId="2"/>
+    <cellStyle name="Parent row" xfId="5"/>
+    <cellStyle name="Table title" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -504,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,47 +501,41 @@
     <col min="2" max="2" width="53.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-    </row>
-    <row r="19" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-    </row>
-    <row r="20" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+    <row r="10" spans="1:1" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:1" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -567,7 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -578,58 +558,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
         <v>0</v>
       </c>
     </row>

--- a/InputData/bldgs/ECiCpCU/Embedded Carbon in Components per Currency Unit.xlsx
+++ b/InputData/bldgs/ECiCpCU/Embedded Carbon in Components per Currency Unit.xlsx
@@ -1,28 +1,94 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\ECiCpCU\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="19440" windowHeight="11040"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="21075" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="ECiCpCU" sheetId="3" r:id="rId2"/>
+    <sheet name="RFF Table 2" sheetId="2" r:id="rId2"/>
+    <sheet name="ECiCpCU" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+  <si>
+    <t>Resources for the Future</t>
+  </si>
+  <si>
+    <t>Impact of Carbon Price Policies on U.S. Industry</t>
+  </si>
+  <si>
+    <t>http://www.rff.org/documents/RFF-DP-08-37.pdf</t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>CO2 Intensity (tons CO2/million $)</t>
+  </si>
   <si>
     <t>Note:</t>
   </si>
   <si>
+    <t>Wood and furniture</t>
+  </si>
+  <si>
+    <t>Glass container manufacturing</t>
+  </si>
+  <si>
+    <t>Cement manufacturing</t>
+  </si>
+  <si>
+    <t>Building components are created by more than one industry (e.g. cement, iron and steel, glass, etc.)</t>
+  </si>
+  <si>
     <t>envelope</t>
   </si>
   <si>
+    <t>Machinery</t>
+  </si>
+  <si>
+    <t>Computer and electrical equipment</t>
+  </si>
+  <si>
+    <t>Miscellaneous manufacturing</t>
+  </si>
+  <si>
+    <t>Heating</t>
+  </si>
+  <si>
+    <t>Cooling and Ventilation</t>
+  </si>
+  <si>
+    <t>Envelope</t>
+  </si>
+  <si>
+    <t>Lighting</t>
+  </si>
+  <si>
+    <t>Other basic inorganic chemical mfg.</t>
+  </si>
+  <si>
+    <t>Appliances</t>
+  </si>
+  <si>
+    <t>Other Component</t>
+  </si>
+  <si>
     <t>Building Component</t>
   </si>
   <si>
@@ -41,29 +107,47 @@
     <t>other component</t>
   </si>
   <si>
+    <t>Our source data table includes only combusion-related CO2 emissions, not process emissions and</t>
+  </si>
+  <si>
+    <t>not emissions of other gases, so these carbon intensities may be on the low side.</t>
+  </si>
+  <si>
     <t>ECiCpCU Embedded Carbon in Components per Currency Unit</t>
   </si>
   <si>
-    <t>Embedded tons CO2/2012$</t>
-  </si>
-  <si>
-    <t>It is assumed that most of these emissions will be outside of California's boundaries.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under these assumptions, it would not be appropriate to apply the California carbon price to these embedded emissions. </t>
-  </si>
-  <si>
-    <t>They are approximated as zero.</t>
+    <t>Page 46, Table 2</t>
+  </si>
+  <si>
+    <t>The source document doesn't specify the currency year for the figures in Table 2, but Table 3</t>
+  </si>
+  <si>
+    <t>specifies that it uses 2005 dollars, so we assume Table 2 also uses 2005 dollars.</t>
+  </si>
+  <si>
+    <t>We adjust 2005 dollars to 2012 dollars using the following conversion factor:</t>
+  </si>
+  <si>
+    <t>See "cpi.xlsx" in the InputData folder for source information.</t>
+  </si>
+  <si>
+    <t>Embedded tons CO2e/2012$</t>
+  </si>
+  <si>
+    <t>For each component, we average the carbon intensities of the one or more most applicable industries</t>
+  </si>
+  <si>
+    <t>and divide by the component cost.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +159,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -103,12 +195,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -156,48 +260,63 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="2"/>
-    <cellStyle name="Footnotes: top row" xfId="6"/>
-    <cellStyle name="Header: bottom row" xfId="3"/>
+  <cellStyles count="8">
+    <cellStyle name="Body: normal cell" xfId="5"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
+    <cellStyle name="Footnotes: top row" xfId="7"/>
+    <cellStyle name="Header: bottom row" xfId="4"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="5"/>
-    <cellStyle name="Table title" xfId="1"/>
+    <cellStyle name="Parent row" xfId="6"/>
+    <cellStyle name="Table title" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -246,7 +365,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -281,7 +400,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,54 +620,261 @@
     <col min="2" max="2" width="53.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>1.117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>168.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1197.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>5080.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1197.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>1444.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>119.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>119.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>72.099999999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,59 +884,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="B2" s="10">
+        <f>'RFF Table 2'!B3/10^6/About!$A$20</f>
+        <v>8.191584601611459E-5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="B3" s="10">
+        <f>'RFF Table 2'!B6/10^6/About!$A$20</f>
+        <v>8.191584601611459E-5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="10">
+        <f>AVERAGE('RFF Table 2'!B9:B11)/10^6/About!$A$20</f>
+        <v>1.9236347358997314E-3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="B5" s="10">
+        <f>AVERAGE('RFF Table 2'!B14:B15)/10^6/About!$A$20</f>
+        <v>1.1823634735899729E-3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="B6" s="10">
+        <f>AVERAGE('RFF Table 2'!B18:B19)/10^6/About!$A$20</f>
+        <v>9.427036705461056E-5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="B7" s="10">
+        <f>AVERAGE('RFF Table 2'!B22:B23)/10^6/About!$A$20</f>
+        <v>8.5586392121754694E-5</v>
       </c>
     </row>
   </sheetData>
